--- a/game17/web.xlsx
+++ b/game17/web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="13200" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>domain</t>
   </si>
@@ -48,52 +48,40 @@
     <t>json</t>
   </si>
   <si>
-    <t>sec.loosestrife.site</t>
+    <t>play.sciamachy.site</t>
+  </si>
+  <si>
+    <t>#c2849f</t>
+  </si>
+  <si>
+    <t>play.chatoyant.site</t>
+  </si>
+  <si>
+    <t>#8bbb6a</t>
+  </si>
+  <si>
+    <t>sangfroids.top</t>
+  </si>
+  <si>
+    <t>#bd9683</t>
+  </si>
+  <si>
+    <t>brios.top</t>
+  </si>
+  <si>
+    <t>#38dbf8</t>
+  </si>
+  <si>
+    <t>jejunitys.top</t>
+  </si>
+  <si>
+    <t>#ff6b35</t>
+  </si>
+  <si>
+    <t>moseys.fun</t>
   </si>
   <si>
     <t>#4caf50</t>
-  </si>
-  <si>
-    <t>sec.woodsorrel.fun</t>
-  </si>
-  <si>
-    <t>#ffea23</t>
-  </si>
-  <si>
-    <t>sec.vincetoxicum.fun</t>
-  </si>
-  <si>
-    <t>#ff6b35</t>
-  </si>
-  <si>
-    <t>sec.apophenia.site</t>
-  </si>
-  <si>
-    <t>#9d4edd</t>
-  </si>
-  <si>
-    <t>sec.obnubilate.cloud</t>
-  </si>
-  <si>
-    <t>#e63946</t>
-  </si>
-  <si>
-    <t>sangfroids.top</t>
-  </si>
-  <si>
-    <t>#bd9683</t>
-  </si>
-  <si>
-    <t>brios.top</t>
-  </si>
-  <si>
-    <t>#38dbf8</t>
-  </si>
-  <si>
-    <t>jejunitys.top</t>
-  </si>
-  <si>
-    <t>moseys.fun</t>
   </si>
   <si>
     <t>galumphs.fun</t>
@@ -214,7 +202,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,8 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF2972F4"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,6 +281,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF2972F4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF2972F4"/>
@@ -444,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="65">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +612,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE3FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2849F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BBB6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,76 +978,70 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,10 +1050,10 @@
     <xf numFmtId="0" fontId="30" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,10 +1062,10 @@
     <xf numFmtId="0" fontId="30" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,10 +1074,10 @@
     <xf numFmtId="0" fontId="30" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1084,10 +1086,10 @@
     <xf numFmtId="0" fontId="30" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,7 +1098,13 @@
     <xf numFmtId="0" fontId="30" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,31 +1206,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,7 +1619,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1667,52 +1675,22 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="37"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="36"/>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="sec.apophenia.site"/>
-    <hyperlink ref="A6" r:id="rId2" display="sec.obnubilate.cloud"/>
+    <hyperlink ref="A2" r:id="rId1" display="play.sciamachy.site"/>
+    <hyperlink ref="A3" r:id="rId2" display="play.chatoyant.site"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1752,10 +1730,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1766,10 +1744,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1780,10 +1758,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1794,10 +1772,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1808,10 +1786,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1860,57 +1838,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1950,18 +1928,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2001,61 +1979,61 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
@@ -2065,10 +2043,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="I7" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2078,10 +2056,10 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="I8" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2091,10 +2069,10 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="I9" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10">
